--- a/new/b.xlsx
+++ b/new/b.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\git\xlConverter\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45276C5D-BFB5-426B-A019-D6C40E9E2AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42DAA5A-00E6-421B-931D-376183261EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10040" yWindow="7540" windowWidth="19160" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#item" sheetId="1" r:id="rId1"/>
+    <sheet name="item" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
